--- a/data/trans_dic/P16A97-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Habitat-trans_dic.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,64</t>
+          <t>1,45; 14,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,73; 33,2</t>
+          <t>14,33; 33,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 34,39</t>
+          <t>15,46; 35,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 22,52</t>
+          <t>3,79; 22,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 50,65</t>
+          <t>22,55; 49,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,89; 46,8</t>
+          <t>19,41; 47,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 13,03</t>
+          <t>3,97; 13,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 36,01</t>
+          <t>19,93; 36,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,3; 36,7</t>
+          <t>19,51; 35,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,21</t>
+          <t>3,91; 8,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 25,01</t>
+          <t>15,53; 24,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 16,09</t>
+          <t>9,14; 16,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 16,27</t>
+          <t>8,7; 16,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,56; 40,55</t>
+          <t>28,89; 40,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,1; 32,95</t>
+          <t>21,54; 32,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,1</t>
+          <t>6,71; 11,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 30,3</t>
+          <t>23,06; 30,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,92</t>
+          <t>15,65; 22,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,27</t>
+          <t>2,23; 5,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,78; 20,93</t>
+          <t>14,55; 21,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,42</t>
+          <t>11,02; 16,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 14,76</t>
+          <t>8,18; 14,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,71; 40,87</t>
+          <t>31,67; 40,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,0; 30,13</t>
+          <t>21,98; 29,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,6</t>
+          <t>5,5; 8,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,34; 28,55</t>
+          <t>23,3; 28,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,53; 21,41</t>
+          <t>16,7; 21,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,46</t>
+          <t>2,99; 7,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 17,94</t>
+          <t>11,33; 18,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,22</t>
+          <t>8,33; 14,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,36</t>
+          <t>5,76; 11,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 38,03</t>
+          <t>27,79; 37,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 22,4</t>
+          <t>14,31; 22,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,62</t>
+          <t>4,74; 8,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 25,64</t>
+          <t>19,88; 26,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 16,9</t>
+          <t>12,01; 16,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,22</t>
+          <t>2,21; 5,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 21,76</t>
+          <t>14,85; 21,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,65; 15,57</t>
+          <t>9,5; 15,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,79</t>
+          <t>6,69; 11,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,47; 41,14</t>
+          <t>32,14; 40,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,9; 28,1</t>
+          <t>20,03; 28,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,44</t>
+          <t>4,64; 7,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,67; 29,32</t>
+          <t>23,62; 29,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 20,44</t>
+          <t>15,42; 20,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,3</t>
+          <t>3,5; 5,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,9; 19,36</t>
+          <t>15,84; 19,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,31</t>
+          <t>11,35; 14,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,76; 11,63</t>
+          <t>8,75; 11,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,79; 37,76</t>
+          <t>32,55; 37,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,44; 25,97</t>
+          <t>21,81; 26,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,86</t>
+          <t>5,99; 7,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,79</t>
+          <t>23,91; 26,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 19,15</t>
+          <t>16,56; 19,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P16A97-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 14,45</t>
+          <t>1,45; 13,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,33; 33,51</t>
+          <t>13,84; 32,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 35,21</t>
+          <t>14,52; 35,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 22,31</t>
+          <t>3,97; 22,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 49,62</t>
+          <t>21,16; 49,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,41; 47,17</t>
+          <t>19,45; 47,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 13,93</t>
+          <t>3,93; 14,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,93; 36,18</t>
+          <t>19,27; 35,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,51; 35,07</t>
+          <t>19,09; 35,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,91</t>
+          <t>3,87; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 24,69</t>
+          <t>16,01; 24,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,62</t>
+          <t>9,36; 16,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 16,06</t>
+          <t>8,63; 16,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,89; 40,31</t>
+          <t>28,18; 40,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,54; 32,51</t>
+          <t>21,55; 32,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,06</t>
+          <t>6,66; 10,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,06; 30,43</t>
+          <t>23,3; 30,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 22,14</t>
+          <t>15,32; 22,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,28</t>
+          <t>2,18; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,55; 21,01</t>
+          <t>14,6; 20,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,56</t>
+          <t>10,81; 16,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 14,35</t>
+          <t>8,64; 14,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,67; 40,96</t>
+          <t>31,8; 41,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,98; 29,92</t>
+          <t>22,28; 30,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,6</t>
+          <t>5,48; 8,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,81</t>
+          <t>23,22; 28,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,7; 21,65</t>
+          <t>16,75; 21,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,25</t>
+          <t>2,84; 7,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,24</t>
+          <t>11,29; 19,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 14,1</t>
+          <t>8,13; 14,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,82</t>
+          <t>5,87; 12,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,79; 37,7</t>
+          <t>27,84; 37,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 22,16</t>
+          <t>13,95; 22,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,3</t>
+          <t>4,8; 8,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,88; 26,01</t>
+          <t>19,57; 25,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,01; 16,9</t>
+          <t>12,18; 17,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,06</t>
+          <t>2,02; 5,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,85; 21,49</t>
+          <t>15,0; 21,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,5; 15,72</t>
+          <t>9,35; 15,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,89</t>
+          <t>6,42; 11,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,14; 40,98</t>
+          <t>32,24; 41,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,03; 28,21</t>
+          <t>19,43; 27,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,41</t>
+          <t>4,59; 7,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,62; 29,54</t>
+          <t>23,72; 29,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 20,54</t>
+          <t>15,4; 20,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,37</t>
+          <t>3,44; 5,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 19,32</t>
+          <t>16,02; 19,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,43</t>
+          <t>11,31; 14,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 11,6</t>
+          <t>8,68; 11,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,55; 37,5</t>
+          <t>32,88; 37,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,12</t>
+          <t>21,75; 26,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,99; 7,63</t>
+          <t>6,07; 7,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,91; 26,85</t>
+          <t>24,03; 26,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 19,24</t>
+          <t>16,58; 19,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
